--- a/app/record/prediction_records_20250122.xlsx
+++ b/app/record/prediction_records_20250122.xlsx
@@ -7,8 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="预测结果" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="评估指标" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -426,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,224 +436,48 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>记录日期</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>LSTM预测值</t>
+          <t>股票代码</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>CNN预测值</t>
+          <t>训练数据起始日期</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Transformer预测值</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2025-01-16</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>283.5359497070312</v>
-      </c>
-      <c r="C2" t="n">
-        <v>267.0055236816406</v>
-      </c>
-      <c r="D2" t="n">
-        <v>286.4857788085938</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2025-01-17</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>282.9888305664062</v>
-      </c>
-      <c r="C3" t="n">
-        <v>264.2337036132812</v>
-      </c>
-      <c r="D3" t="n">
-        <v>279.1143798828125</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>2025-01-18</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>282.4423217773438</v>
-      </c>
-      <c r="C4" t="n">
-        <v>268.6252136230469</v>
-      </c>
-      <c r="D4" t="n">
-        <v>280.27099609375</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-01-19</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>281.5166015625</v>
-      </c>
-      <c r="C5" t="n">
-        <v>263.7526550292969</v>
-      </c>
-      <c r="D5" t="n">
-        <v>277.4623107910156</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>2025-01-20</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>280.9241943359375</v>
-      </c>
-      <c r="C6" t="n">
-        <v>261.2351989746094</v>
-      </c>
-      <c r="D6" t="n">
-        <v>280.5460205078125</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>2025-01-21</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>280.4733581542969</v>
-      </c>
-      <c r="C7" t="n">
-        <v>262.8541564941406</v>
-      </c>
-      <c r="D7" t="n">
-        <v>282.1522216796875</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>2025-01-22</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>280.4317626953125</v>
-      </c>
-      <c r="C8" t="n">
-        <v>268.0192565917969</v>
-      </c>
-      <c r="D8" t="n">
-        <v>285.1195983886719</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>模型</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
+          <t>训练数据结束日期</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>模型名称</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>RMSE</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>MAE</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>MAPE</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>RMSE</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>MAE</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>LSTM</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>5.908605456352234</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.05087637156248093</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.03925509750843048</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>CNN</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>6.404317170381546</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.05451669543981552</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.04268866032361984</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Transformer</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>26.80159509181976</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.1916636675596237</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.1706596910953522</v>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>训练时长（分钟）</t>
+        </is>
       </c>
     </row>
   </sheetData>
